--- a/modules/Filter2/positions.xlsx
+++ b/modules/Filter2/positions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\Filter2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D4DA88-FA32-44FB-A4ED-CC438B08A92D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4557DE4-8C0E-4688-BC2E-AB64EC4E35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4710" yWindow="1290" windowWidth="18540" windowHeight="12495" xr2:uid="{7A854C23-8C7F-43C5-86C4-846A5F5DE0F0}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,21 +444,23 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>4.2413385830000001</v>
+        <f>4.34+0.1</f>
+        <v>4.4399999999999995</v>
       </c>
       <c r="C2">
-        <v>5.137007874</v>
+        <f>5.235433071+0.1</f>
+        <v>5.3354330709999997</v>
       </c>
       <c r="D2">
-        <v>1.9</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B3">
         <v>4.2413385830000001</v>
@@ -472,7 +474,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>4.2413385830000001</v>
@@ -486,19 +488,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <f>4.34+0.1</f>
-        <v>4.4399999999999995</v>
+        <v>4.2413385830000001</v>
       </c>
       <c r="C5">
-        <f>5.235433071+0.1</f>
-        <v>5.3354330709999997</v>
+        <v>5.137007874</v>
       </c>
       <c r="D5">
-        <f>3.854724409-0.1</f>
-        <v>3.754724409</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">

--- a/modules/Filter2/positions.xlsx
+++ b/modules/Filter2/positions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\Synth-priv\modules\Filter2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4557DE4-8C0E-4688-BC2E-AB64EC4E35F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F0ABA4-9C13-42C5-8513-A03AB1025279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4710" yWindow="1290" windowWidth="18540" windowHeight="12495" xr2:uid="{7A854C23-8C7F-43C5-86C4-846A5F5DE0F0}"/>
+    <workbookView xWindow="1950" yWindow="1125" windowWidth="18540" windowHeight="12495" xr2:uid="{7A854C23-8C7F-43C5-86C4-846A5F5DE0F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Pot row 1</t>
   </si>
@@ -72,13 +72,41 @@
   </si>
   <si>
     <t>headers</t>
+  </si>
+  <si>
+    <t>PCB size</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>controls</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,13 +132,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -423,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00180728-E6BB-4E80-870C-228802ECA8C9}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +582,7 @@
         <v>8.1381890160000001</v>
       </c>
       <c r="D9">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -562,7 +593,7 @@
         <v>6.2499998430000003</v>
       </c>
       <c r="D10">
-        <v>3.75</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -572,6 +603,10 @@
       <c r="B13">
         <v>3.91</v>
       </c>
+      <c r="C13">
+        <f>(B13+B14)/2</f>
+        <v>4.7933070865000005</v>
+      </c>
       <c r="D13">
         <v>2.0499999999999998</v>
       </c>
@@ -585,10 +620,115 @@
       <c r="B15">
         <v>6.3099998429999999</v>
       </c>
+      <c r="C15">
+        <f>(B15+B16)/2</f>
+        <v>7.1933069295000003</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>8.0766140160000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>6.2</v>
+      </c>
+      <c r="C20">
+        <v>8.1881889759999993</v>
+      </c>
+      <c r="D20">
+        <f>C20-B20</f>
+        <v>1.9881889759999991</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>2.8</v>
+      </c>
+      <c r="C21">
+        <v>5.66</v>
+      </c>
+      <c r="D21">
+        <f>C21-B21</f>
+        <v>2.8600000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22">
+        <f>D20*D21</f>
+        <v>5.6862204713599978</v>
+      </c>
+      <c r="C22" s="1">
+        <f>B22*5</f>
+        <v>28.43110235679999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24">
+        <v>3.8</v>
+      </c>
+      <c r="C24">
+        <v>5.7881889759999998</v>
+      </c>
+      <c r="D24">
+        <f>C24-B24</f>
+        <v>1.988188976</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25">
+        <v>1.4</v>
+      </c>
+      <c r="C25">
+        <v>5.66</v>
+      </c>
+      <c r="D25">
+        <f>C25-B25</f>
+        <v>4.26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26">
+        <f>D24*D25</f>
+        <v>8.4696850377599997</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26*5</f>
+        <v>42.3484251888</v>
       </c>
     </row>
   </sheetData>
